--- a/week-1/Solutions/1-1-B-excel-toolbox-solutions.xlsx
+++ b/week-1/Solutions/1-1-B-excel-toolbox-solutions.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A503138C-5250-46B6-9520-21CBA8A0B29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="practice-log" sheetId="2" r:id="rId2"/>
+    <sheet name="dates" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Link to deck:</t>
   </si>
@@ -61,12 +63,21 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -125,12 +136,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Currency 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,17 +418,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,26 +438,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="slide=id.g617bca4139_0_0  "/>
+    <hyperlink ref="B1" r:id="rId1" location="slide=id.g617bca4139_0_0  " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -454,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -462,7 +473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -470,7 +481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -478,7 +489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -486,7 +497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -494,13 +505,98 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01244E6-DDED-41C9-9562-5ADDEF8AEC10}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>43731</v>
+      </c>
+      <c r="B2">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>43732</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>43733</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>43734</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>43735</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/week-1/Solutions/1-1-B-excel-toolbox-solutions.xlsx
+++ b/week-1/Solutions/1-1-B-excel-toolbox-solutions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A503138C-5250-46B6-9520-21CBA8A0B29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8F352-3299-4A04-8156-CB62476CED7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="readme" sheetId="1" r:id="rId1"/>
-    <sheet name="practice-log" sheetId="2" r:id="rId2"/>
-    <sheet name="dates" sheetId="3" r:id="rId3"/>
+    <sheet name="practice-log" sheetId="2" r:id="rId1"/>
+    <sheet name="dates" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Link to deck:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.google.com/presentation/d/1wPzwPopQZFFs0f8X-AiclwA2dsfAin-lVFB4roswhKg/edit#slide=id.g617bca4139_0_0  </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Total</t>
   </si>
@@ -82,7 +77,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +88,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,25 +110,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,108 +402,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="slide=id.g617bca4139_0_0  " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01244E6-DDED-41C9-9562-5ADDEF8AEC10}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -528,23 +485,23 @@
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>43731</v>
       </c>
@@ -555,7 +512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43732</v>
       </c>
@@ -566,7 +523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43733</v>
       </c>
@@ -577,7 +534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43734</v>
       </c>
@@ -588,7 +545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43735</v>
       </c>
